--- a/kvalitativ/timings_40_question_gemini-2.0-flash-kvalitativ.xlsx
+++ b/kvalitativ/timings_40_question_gemini-2.0-flash-kvalitativ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\kvalitativ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C42CF5-94A2-401A-8FBF-8A2D3299424D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492EEFA6-46ED-4199-B5D3-9250C23EA946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,12 +196,6 @@
   </si>
   <si>
     <t>Románia parlamentjének képviselőháza 2012. február 28-i ülésén megszavazta a Sapientia Erdélyi Magyar Tudományegyetem akkreditálását.</t>
-  </si>
-  <si>
-    <t>Mi a fő célja a többciklusú képzés rendszernak?</t>
-  </si>
-  <si>
-    <t>A Bologna-folyamat célja az európai felsőoktatás ésszerű harmonizációja.</t>
   </si>
   <si>
     <t>Fő célja, hogy lehetővé tegye a munkaerőpiacon való elhelyezkedést biztosító diploma megszerzését, ezért az alapképzés során a gyakorlati képzés kap nagyobb hangsúlyt.</t>
@@ -505,6 +499,12 @@
   <si>
     <t xml:space="preserve">A CIRG kutatócsoport fontosabb kutatási témái: klaszterező és részlegesen felügyelt klaszterező algoritmusok, evolúciós algoritmusok, digitális jel- és képfeldolgozás, beszédtechnológia: folyamatos beszédfelismerés, beszédszintézis, nyelvi erőforrások fejlesztése, alkalmazások nagy adatbázisokkal, élettani rendszerek modellezése és szimulációja, protein együtthatási hálózatainak tanulmányozása, virtualizációs technikák.
 </t>
+  </si>
+  <si>
+    <t>Mi a fő célja a többciklusú képzés rendszernek?</t>
+  </si>
+  <si>
+    <t>A többciklusú képzés (alap-, mester- és doktori képzés) célja az egységes Európai Felsőoktatási Térséghez történő csatlakozás és több választási lehetőség teremtése, ezzel több időt hagyva a hallgatóknak tanulmányaik során képességeik felismerésére.</t>
   </si>
 </sst>
 </file>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,13 +1287,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
       </c>
       <c r="E15">
         <v>2.42</v>
@@ -1308,7 +1308,7 @@
         <v>8.94</v>
       </c>
       <c r="I15">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1316,13 +1316,13 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>1.95</v>
@@ -1345,13 +1345,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
         <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
       </c>
       <c r="E17">
         <v>1.33</v>
@@ -1374,13 +1374,13 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
         <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
       </c>
       <c r="E18">
         <v>1.36</v>
@@ -1403,13 +1403,13 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
       </c>
       <c r="E19">
         <v>1.51</v>
@@ -1432,13 +1432,13 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
         <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
       </c>
       <c r="E20">
         <v>1.17</v>
@@ -1461,13 +1461,13 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
         <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
       </c>
       <c r="E21">
         <v>1.29</v>
@@ -1490,13 +1490,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
         <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>69</v>
       </c>
       <c r="E22">
         <v>1.27</v>
@@ -1519,13 +1519,13 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
         <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
       </c>
       <c r="E23">
         <v>1.98</v>
@@ -1548,13 +1548,13 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
         <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" t="s">
-        <v>75</v>
       </c>
       <c r="E24">
         <v>2.78</v>
@@ -1577,13 +1577,13 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
         <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
       </c>
       <c r="E25">
         <v>1.55</v>
@@ -1606,13 +1606,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
         <v>79</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>81</v>
       </c>
       <c r="E26">
         <v>1.82</v>
@@ -1635,13 +1635,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
         <v>82</v>
-      </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
       </c>
       <c r="E27">
         <v>0.95</v>
@@ -1664,13 +1664,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E28">
         <v>1.67</v>
@@ -1693,13 +1693,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
         <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
       </c>
       <c r="E29">
         <v>1.32</v>
@@ -1722,13 +1722,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
         <v>90</v>
-      </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" t="s">
-        <v>92</v>
       </c>
       <c r="E30">
         <v>1.1499999999999999</v>
@@ -1751,13 +1751,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
         <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" t="s">
-        <v>95</v>
       </c>
       <c r="E31">
         <v>1.32</v>
@@ -1780,13 +1780,13 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
         <v>96</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
       </c>
       <c r="E32">
         <v>1.69</v>
@@ -1809,13 +1809,13 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
         <v>99</v>
-      </c>
-      <c r="C33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" t="s">
-        <v>101</v>
       </c>
       <c r="E33">
         <v>2.2400000000000002</v>
@@ -1838,13 +1838,13 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E34">
         <v>1.63</v>
@@ -1867,13 +1867,13 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
         <v>104</v>
-      </c>
-      <c r="C35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
       </c>
       <c r="E35">
         <v>1.76</v>
@@ -1896,13 +1896,13 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
         <v>107</v>
-      </c>
-      <c r="C36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" t="s">
-        <v>109</v>
       </c>
       <c r="E36">
         <v>1.87</v>
@@ -1925,13 +1925,13 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E37">
         <v>1.73</v>
@@ -1954,13 +1954,13 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
         <v>112</v>
-      </c>
-      <c r="C38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" t="s">
-        <v>114</v>
       </c>
       <c r="E38">
         <v>2.48</v>
@@ -1983,13 +1983,13 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E39">
         <v>1.2</v>
@@ -2012,13 +2012,13 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E40">
         <v>1.08</v>
@@ -2041,13 +2041,13 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" t="s">
         <v>119</v>
-      </c>
-      <c r="C41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" t="s">
-        <v>121</v>
       </c>
       <c r="E41">
         <v>1.55</v>
